--- a/src/charts_of_results.xlsx
+++ b/src/charts_of_results.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Broserperf</t>
   </si>
@@ -54,12 +56,69 @@
   <si>
     <t>2015.oct. 10</t>
   </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>MajorGC</t>
+  </si>
+  <si>
+    <t>MinorGC</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Paint</t>
+  </si>
+  <si>
+    <t>droppedFrameCount</t>
+  </si>
+  <si>
+    <t>frames_per_sec</t>
+  </si>
+  <si>
+    <t>domReadyTime</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>react_v2.24,</t>
+  </si>
+  <si>
+    <t>react_v2.20,</t>
+  </si>
+  <si>
+    <t>react_keys_v2.24,</t>
+  </si>
+  <si>
+    <t>react_keys_v2.20,</t>
+  </si>
+  <si>
+    <t>angular1_v2.24,</t>
+  </si>
+  <si>
+    <t>angular1_v2.20,</t>
+  </si>
+  <si>
+    <t>angular1_trackby_v2.24,</t>
+  </si>
+  <si>
+    <t>angular1_trackby_v2.20,</t>
+  </si>
+  <si>
+    <t>angular2_v2.24,</t>
+  </si>
+  <si>
+    <t>angular2_v2.20,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +126,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -93,15 +173,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3970,21 +4113,9 @@
             <c:strRef>
               <c:f>[3]Sheet1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>react</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>react_keys</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>angular1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>angular1_trackby</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>angular2</c:v>
+                  <c:v>react react_keys angular1 angular1_trackby angular2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4172,7 +4303,7 @@
             <c:numRef>
               <c:f>([3]Sheet1!$C$2,[3]Sheet1!$E$2,[3]Sheet1!$G$2,[3]Sheet1!$I$2,[3]Sheet1!$K$2)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-0.1057702962182356</c:v>
@@ -4284,7 +4415,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4457,21 +4588,9 @@
             <c:strRef>
               <c:f>[3]Sheet1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>react</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>react_keys</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>angular1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>angular1_trackby</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>angular2</c:v>
+                  <c:v>react react_keys angular1 angular1_trackby angular2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4659,7 +4778,7 @@
             <c:numRef>
               <c:f>([3]Sheet1!$C$3,[3]Sheet1!$E$3,[3]Sheet1!$G$3,[3]Sheet1!$I$3,[3]Sheet1!$K$3)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-2.9044528008748766E-2</c:v>
@@ -4771,7 +4890,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4936,21 +5055,9 @@
             <c:strRef>
               <c:f>[3]Sheet1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>react</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>react_keys</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>angular1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>angular1_trackby</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>angular2</c:v>
+                  <c:v>react react_keys angular1 angular1_trackby angular2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5138,7 +5245,7 @@
             <c:numRef>
               <c:f>([3]Sheet1!$C$4,[3]Sheet1!$E$4,[3]Sheet1!$G$4,[3]Sheet1!$I$4,[3]Sheet1!$K$4)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-1.8604606821433504E-2</c:v>
@@ -5250,7 +5357,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5886,21 +5993,9 @@
             <c:strRef>
               <c:f>[3]Sheet1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>react</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>react_keys</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>angular1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>angular1_trackby</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>angular2</c:v>
+                  <c:v>react react_keys angular1 angular1_trackby angular2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6088,7 +6183,7 @@
             <c:numRef>
               <c:f>([3]Sheet1!$C$5,[3]Sheet1!$E$5,[3]Sheet1!$G$5,[3]Sheet1!$I$5,[3]Sheet1!$K$5)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-1.9676387389164524E-2</c:v>
@@ -6200,7 +6295,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6373,21 +6468,9 @@
             <c:strRef>
               <c:f>[3]Sheet1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>react</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>react_keys</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>angular1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>angular1_trackby</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>angular2</c:v>
+                  <c:v>react react_keys angular1 angular1_trackby angular2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6575,7 +6658,7 @@
             <c:numRef>
               <c:f>([3]Sheet1!$C$7,[3]Sheet1!$E$7,[3]Sheet1!$G$7,[3]Sheet1!$I$7,[3]Sheet1!$K$7)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.2115446144887828E-2</c:v>
@@ -6687,7 +6770,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6860,21 +6943,9 @@
             <c:strRef>
               <c:f>[3]Sheet1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>react</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>react_keys</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>angular1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>angular1_trackby</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>angular2</c:v>
+                  <c:v>react react_keys angular1 angular1_trackby angular2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7062,7 +7133,7 @@
             <c:numRef>
               <c:f>([3]Sheet1!$C$6,[3]Sheet1!$E$6,[3]Sheet1!$G$6,[3]Sheet1!$I$6,[3]Sheet1!$K$6)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-1.8143852817517861E-2</c:v>
@@ -7174,7 +7245,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7339,21 +7410,9 @@
             <c:strRef>
               <c:f>[3]Sheet1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>react</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>react_keys</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>angular1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>angular1_trackby</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>angular2</c:v>
+                  <c:v>react react_keys angular1 angular1_trackby angular2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7541,7 +7600,7 @@
             <c:numRef>
               <c:f>([3]Sheet1!$C$8,[3]Sheet1!$E$8,[3]Sheet1!$G$8,[3]Sheet1!$I$8,[3]Sheet1!$K$8)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-1.5263417035943905E-2</c:v>
@@ -7653,7 +7712,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7818,21 +7877,9 @@
             <c:strRef>
               <c:f>[3]Sheet1!$B$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>react</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>react_keys</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>angular1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>angular1_trackby</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>angular2</c:v>
+                  <c:v>react react_keys angular1 angular1_trackby angular2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8020,7 +8067,7 @@
             <c:numRef>
               <c:f>([3]Sheet1!$C$9,[3]Sheet1!$E$9,[3]Sheet1!$G$9,[3]Sheet1!$I$9,[3]Sheet1!$K$9)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>-1.1692495070102123E-2</c:v>
@@ -8132,7 +8179,3041 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712981151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MajorGC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t> operations time in ms (lower is</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> better) - with Chromedriver v2.24 and v2.20</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-52EF-442A-B06B-5F7B727CC3F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-52EF-442A-B06B-5F7B727CC3F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-52EF-442A-B06B-5F7B727CC3F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-52EF-442A-B06B-5F7B727CC3F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-52EF-442A-B06B-5F7B727CC3F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.734999970000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.596149969999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.312200229999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.06490015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>464.35392899999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450.81815840000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.076600030000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.447250019999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224.10026680000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230.6811501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-52EF-442A-B06B-5F7B727CC3F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="712981151"/>
+        <c:axId val="712982399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="712981151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712982399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="712982399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712981151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MinorGC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t> operations time in ms (lower is better) - with Chromedriver</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> v2.24 and v2.20</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0984-4B11-949F-E68864B549FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0984-4B11-949F-E68864B549FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0984-4B11-949F-E68864B549FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0984-4B11-949F-E68864B549FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0984-4B11-949F-E68864B549FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>170.78106690000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.88970019999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164.92206659999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.9468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1199.330929</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1179.515316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308.3886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>306.77270019999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>630.0073999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>626.91214979999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0984-4B11-949F-E68864B549FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="712981151"/>
+        <c:axId val="712982399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="712981151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712982399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="712982399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712981151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Frames per second - FPS (higher is better) - with Chromedriver v2.24 and v2.20</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-27C3-4317-B77E-82DC02F407BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-27C3-4317-B77E-82DC02F407BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-27C3-4317-B77E-82DC02F407BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-27C3-4317-B77E-82DC02F407BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-27C3-4317-B77E-82DC02F407BC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>48.150736270000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.574351780000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.910376130000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.994075029999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.364952939999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.834703780000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.90714689</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.04274831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.011578479999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.000612500000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-27C3-4317-B77E-82DC02F407BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="712981151"/>
+        <c:axId val="712982399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="712981151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712982399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="712982399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712981151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Dropped Frame Count (lower is better) - with Chromedriver v2.24 and v2.20</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6383-454C-9889-F3235FE09A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6383-454C-9889-F3235FE09A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6383-454C-9889-F3235FE09A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6383-454C-9889-F3235FE09A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6383-454C-9889-F3235FE09A41}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>579.93333329999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>590.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>585.33333330000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>579.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>734.8666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>738.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>587.8666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>582.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>622.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-6383-454C-9889-F3235FE09A41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="712981151"/>
+        <c:axId val="712982399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="712981151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712982399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="712982399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712981151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>DOM Ready time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> in ms </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>(lower is better) - with Chromedriver v2.24 and v2.20</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7431-4205-BF13-B418D9C04421}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7431-4205-BF13-B418D9C04421}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7431-4205-BF13-B418D9C04421}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7431-4205-BF13-B418D9C04421}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7431-4205-BF13-B418D9C04421}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33.333333330000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.333333330000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>517.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>543.26666669999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>542.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.133333329999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7431-4205-BF13-B418D9C04421}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="712981151"/>
+        <c:axId val="712982399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="712981151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712982399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="712982399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8510,6 +11591,616 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-ED83-4165-A04C-AB709571A726}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="712981151"/>
+        <c:axId val="712982399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="712981151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712982399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="712982399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712981151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Javascript</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> execution time in ms </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>(lower is better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9445-4936-AC21-04E8AE504CDA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9445-4936-AC21-04E8AE504CDA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9445-4936-AC21-04E8AE504CDA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9445-4936-AC21-04E8AE504CDA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9445-4936-AC21-04E8AE504CDA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>react_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>react_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>react_keys_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>react_keys_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>angular1_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>angular1_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>angular1_trackby_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>angular1_trackby_v2.20,</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>angular2_v2.24,</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>angular2_v2.20,</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6828.8914670000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6909.6828999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6926.0502669999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6894.1494499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12045.865599999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12096.69485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8485.4115999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8449.3847000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8541.6664000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8558.3131990000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9445-4936-AC21-04E8AE504CDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12185,7 +15876,247 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -21016,7 +24947,3025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25308,6 +32257,203 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -26108,7 +33254,7 @@
   </sheetPr>
   <dimension ref="A1:T132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC87" sqref="AC87"/>
     </sheetView>
   </sheetViews>
@@ -26556,4 +33702,389 @@
   <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="S136" sqref="S136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7">
+        <v>15.734999970000001</v>
+      </c>
+      <c r="C2" s="7">
+        <v>17.596149969999999</v>
+      </c>
+      <c r="D2" s="7">
+        <v>24.312200229999998</v>
+      </c>
+      <c r="E2" s="7">
+        <v>24.06490015</v>
+      </c>
+      <c r="F2" s="7">
+        <v>464.35392899999999</v>
+      </c>
+      <c r="G2" s="7">
+        <v>450.81815840000002</v>
+      </c>
+      <c r="H2" s="7">
+        <v>28.076600030000002</v>
+      </c>
+      <c r="I2" s="7">
+        <v>28.447250019999998</v>
+      </c>
+      <c r="J2" s="7">
+        <v>224.10026680000001</v>
+      </c>
+      <c r="K2" s="7">
+        <v>230.6811501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <v>170.78106690000001</v>
+      </c>
+      <c r="C3" s="7">
+        <v>175.88970019999999</v>
+      </c>
+      <c r="D3" s="7">
+        <v>164.92206659999999</v>
+      </c>
+      <c r="E3" s="7">
+        <v>155.9468</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1199.330929</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1179.515316</v>
+      </c>
+      <c r="H3" s="7">
+        <v>308.3886</v>
+      </c>
+      <c r="I3" s="7">
+        <v>306.77270019999997</v>
+      </c>
+      <c r="J3" s="7">
+        <v>630.0073999</v>
+      </c>
+      <c r="K3" s="7">
+        <v>626.91214979999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1275.1815999999999</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1299.3556000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1258.9484</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1257.4748500000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>276.44900000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>266.89568420000001</v>
+      </c>
+      <c r="H4" s="7">
+        <v>456.95159999999998</v>
+      </c>
+      <c r="I4" s="7">
+        <v>449.0243499</v>
+      </c>
+      <c r="J4" s="7">
+        <v>370.41146689999999</v>
+      </c>
+      <c r="K4" s="7">
+        <v>369.80780010000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7">
+        <v>636.07513359999996</v>
+      </c>
+      <c r="C5" s="7">
+        <v>648.84200009999995</v>
+      </c>
+      <c r="D5" s="7">
+        <v>632.08799999999997</v>
+      </c>
+      <c r="E5" s="7">
+        <v>630.20294999999999</v>
+      </c>
+      <c r="F5" s="7">
+        <v>76.725785650000006</v>
+      </c>
+      <c r="G5" s="7">
+        <v>74.474999949999997</v>
+      </c>
+      <c r="H5" s="7">
+        <v>131.08493350000001</v>
+      </c>
+      <c r="I5" s="7">
+        <v>127.2456</v>
+      </c>
+      <c r="J5" s="7">
+        <v>85.453133300000005</v>
+      </c>
+      <c r="K5" s="7">
+        <v>85.175849970000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>579.93333329999996</v>
+      </c>
+      <c r="C6" s="7">
+        <v>590.65</v>
+      </c>
+      <c r="D6" s="7">
+        <v>585.33333330000005</v>
+      </c>
+      <c r="E6" s="7">
+        <v>579.70000000000005</v>
+      </c>
+      <c r="F6" s="7">
+        <v>734.8666667</v>
+      </c>
+      <c r="G6" s="7">
+        <v>738.9</v>
+      </c>
+      <c r="H6" s="7">
+        <v>587.8666667</v>
+      </c>
+      <c r="I6" s="7">
+        <v>582.45000000000005</v>
+      </c>
+      <c r="J6" s="7">
+        <v>625</v>
+      </c>
+      <c r="K6" s="7">
+        <v>622.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7">
+        <v>48.150736270000003</v>
+      </c>
+      <c r="C7" s="7">
+        <v>47.574351780000001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>47.910376130000003</v>
+      </c>
+      <c r="E7" s="7">
+        <v>47.994075029999998</v>
+      </c>
+      <c r="F7" s="7">
+        <v>31.364952939999998</v>
+      </c>
+      <c r="G7" s="7">
+        <v>31.834703780000002</v>
+      </c>
+      <c r="H7" s="7">
+        <v>43.90714689</v>
+      </c>
+      <c r="I7" s="7">
+        <v>44.04274831</v>
+      </c>
+      <c r="J7" s="7">
+        <v>43.011578479999997</v>
+      </c>
+      <c r="K7" s="7">
+        <v>43.000612500000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7">
+        <v>33.333333330000002</v>
+      </c>
+      <c r="C8" s="7">
+        <v>33.85</v>
+      </c>
+      <c r="D8" s="7">
+        <v>33.333333330000002</v>
+      </c>
+      <c r="E8" s="7">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F8" s="7">
+        <v>512</v>
+      </c>
+      <c r="G8" s="7">
+        <v>517.15</v>
+      </c>
+      <c r="H8" s="7">
+        <v>543.26666669999997</v>
+      </c>
+      <c r="I8" s="7">
+        <v>542.75</v>
+      </c>
+      <c r="J8" s="7">
+        <v>32.133333329999999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7">
+        <v>6828.8914670000004</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6909.6828999999998</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6926.0502669999996</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6894.1494499999999</v>
+      </c>
+      <c r="F9" s="7">
+        <v>12045.865599999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>12096.69485</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8485.4115999999995</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8449.3847000000005</v>
+      </c>
+      <c r="J9" s="7">
+        <v>8541.6664000000001</v>
+      </c>
+      <c r="K9" s="7">
+        <v>8558.3131990000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>